--- a/biology/Neurosciences/Ernest_Huet/Ernest_Huet.xlsx
+++ b/biology/Neurosciences/Ernest_Huet/Ernest_Huet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Huet, né le 5 mai 1858 à Rugles et mort le 5 février 1917 à Paris est un médecin neurologue français. Il est connu pour avoir créé le premier laboratoire d'électrothérapie, associé au service du professeur Charcot à l'hôpital de la Salpêtrière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Huet, né le 5 mai 1858 à Rugles et mort le 5 février 1917 à Paris est un médecin neurologue français. Il est connu pour avoir créé le premier laboratoire d'électrothérapie, associé au service du professeur Charcot à l'hôpital de la Salpêtrière.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formé à l'École de médecine de Caen dont il sort lauréat en 1877, il réussit le concours de l'internat de Paris. Il travaille d'abord sous la direction de Charles Lailler (1822-1892) à l'hôpital Saint-Louis, puis de Jules Dejerine (1849-1917) à Bicêtre, avent d'être nommé, en 1888 à la Salpêtrière aux côtés de Jean-Martin Charcot (1825-1893)[2]. Le 26 juillet 1889, il soutient , sous la présidence Charcot, une thèse consacrée à la chorée de Huntington. Le sujet lui avait été suggéré par son maître après une présentation du mardi consacrée aux chorées chroniques, décrites 5 ans plus tôt par George Huntington (1850-1916). Charcot avait exprimé des doutes quant au caractère héréditaire de cette affection
-En 1895, il succède à Romain Vigouroux (1831-1895) à la tête du laboratoire d'électrologie, qu'il dirige jusqu'en 1912[3]. Son expérience de clinicien transparaît dans le chapitre « Applications de l'électricité au diagnostic et au traitement des maladies du système nerveux » du livre « La Pratique Neurologique » de Pierre Marie, qui comporte de nombreuses illustrations des appareils utilisés.
-Il meurt d'une pneumonie en prodiguant ses soins aux blessés de la Grande Guerre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formé à l'École de médecine de Caen dont il sort lauréat en 1877, il réussit le concours de l'internat de Paris. Il travaille d'abord sous la direction de Charles Lailler (1822-1892) à l'hôpital Saint-Louis, puis de Jules Dejerine (1849-1917) à Bicêtre, avent d'être nommé, en 1888 à la Salpêtrière aux côtés de Jean-Martin Charcot (1825-1893). Le 26 juillet 1889, il soutient , sous la présidence Charcot, une thèse consacrée à la chorée de Huntington. Le sujet lui avait été suggéré par son maître après une présentation du mardi consacrée aux chorées chroniques, décrites 5 ans plus tôt par George Huntington (1850-1916). Charcot avait exprimé des doutes quant au caractère héréditaire de cette affection
+En 1895, il succède à Romain Vigouroux (1831-1895) à la tête du laboratoire d'électrologie, qu'il dirige jusqu'en 1912. Son expérience de clinicien transparaît dans le chapitre « Applications de l'électricité au diagnostic et au traitement des maladies du système nerveux » du livre « La Pratique Neurologique » de Pierre Marie, qui comporte de nombreuses illustrations des appareils utilisés.
+Il meurt d'une pneumonie en prodiguant ses soins aux blessés de la Grande Guerre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la Chorée chronique. Paris. Le Progès Médical. 1889.
 Applications de l'électricité au diagnostic et au traitement des maladies du système nerveux. In La Pratique Neurologique. Marie P., Paris, 1911.</t>
